--- a/Protocol_Analysis/lists/grouped.xlsx
+++ b/Protocol_Analysis/lists/grouped.xlsx
@@ -11,6 +11,32 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>dsr_pkt</t>
+  </si>
+  <si>
+    <t>dsr基本数据包</t>
+  </si>
+  <si>
+    <t>rreq_tbl</t>
+  </si>
+  <si>
+    <t>用来统计正在运行的路由发现，包括两种：1.经由本节点的 2.本节点发起的</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Blacklist：没有函数会向其中添加内容，特殊需要时满足特殊功能（对所有被调用的函数而言）</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,9 +650,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -947,14 +976,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
